--- a/biology/Zoologie/Centrogenyidae/Centrogenyidae.xlsx
+++ b/biology/Zoologie/Centrogenyidae/Centrogenyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Centrogenyidae sont une famille de poissons de l'ordre des Perciformes représentée par un seul genre, Centrogenys, et une seule espèce, Centrogenys vaigiensis (Quoy and Gaimard, 1824).
 Il s'agit d'un poisson vivant en eau saumâtre ou marine que l'on rencontre dans l'océan Indien et en Pacifique ouest.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 juillet 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 juillet 2019) :
 genre Centrogenys Richardson, 1842</t>
         </is>
       </c>
